--- a/Tables/Sources/gameplay/Facility/FacilityDeliver.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityDeliver.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -25,6 +25,9 @@
     <t>升级材料</t>
   </si>
   <si>
+    <t>升级花费</t>
+  </si>
+  <si>
     <t>升级条件</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>UpgradeRes</t>
+  </si>
+  <si>
+    <t>UpgradeCost</t>
   </si>
   <si>
     <t>UpgradePreconditions</t>
@@ -69,9 +75,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -91,6 +97,74 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -98,6 +172,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -107,105 +196,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,14 +234,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,25 +261,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,157 +417,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,24 +472,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,17 +511,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,27 +567,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,19 +585,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,16 +606,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,94 +618,100 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,7 +1072,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1074,16 +1080,16 @@
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="2" max="3" width="21.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,102 +1102,126 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:4">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>500</v>
+      </c>
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20000</v>
+      </c>
+      <c r="D8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>104</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Facility/FacilityDeliver.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityDeliver.xlsx
@@ -58,16 +58,16 @@
     <t>TeamUnlock</t>
   </si>
   <si>
-    <t>1001|20;1002|10</t>
-  </si>
-  <si>
-    <t>1001|100;1002|60</t>
-  </si>
-  <si>
-    <t>1003|200;1002|200</t>
-  </si>
-  <si>
-    <t>1003|800;1002|600</t>
+    <t>1002|500;1003|300</t>
+  </si>
+  <si>
+    <t>1002|1200;1003|800</t>
+  </si>
+  <si>
+    <t>1002|2100;1003|1400</t>
+  </si>
+  <si>
+    <t>1003|2200;1004|2200</t>
   </si>
 </sst>
 </file>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,6 +97,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -104,17 +135,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,43 +159,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,8 +172,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,54 +233,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,25 +261,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,13 +399,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,139 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +520,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -531,24 +540,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,16 +558,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,7 +1077,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1165,7 +1165,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="3">
-        <v>500</v>
+        <v>2200</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -1182,7 +1182,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="3">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="D6" s="2">
         <v>5</v>
@@ -1199,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="3">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
@@ -1216,7 +1216,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="3">
-        <v>20000</v>
+        <v>8400</v>
       </c>
       <c r="D8" s="2">
         <v>7</v>

--- a/Tables/Sources/gameplay/Facility/FacilityDeliver.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityDeliver.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,16 +58,16 @@
     <t>TeamUnlock</t>
   </si>
   <si>
+    <t>1002|250;1003|120</t>
+  </si>
+  <si>
     <t>1002|500;1003|300</t>
   </si>
   <si>
-    <t>1002|1200;1003|800</t>
-  </si>
-  <si>
-    <t>1002|2100;1003|1400</t>
-  </si>
-  <si>
-    <t>1003|2200;1004|2200</t>
+    <t>1002|1000;1003|600</t>
+  </si>
+  <si>
+    <t>1003|1500;1004|1500</t>
   </si>
 </sst>
 </file>
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -97,6 +97,58 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -104,24 +156,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,8 +194,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,12 +211,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -164,77 +225,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,19 +261,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,163 +435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,26 +472,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,11 +494,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,17 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +550,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -573,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,7 +1077,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
